--- a/template/导出播放量需求模板.xlsx
+++ b/template/导出播放量需求模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="12900" activeTab="1"/>
+    <workbookView windowWidth="19515" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="剧目" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>第一个表格根据剧目id导出播放量，表名称一定要是剧目</t>
   </si>
   <si>
-    <t>第一个表格根据类型id导出播放量，表名称一定要是类型</t>
+    <t>第二个表格根据类型id导出播放量，表名称一定要是类型</t>
   </si>
   <si>
     <t>电影</t>
@@ -127,8 +127,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -172,12 +172,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -185,8 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,11 +285,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,103 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -328,31 +330,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,37 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,103 +480,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +544,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +598,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,186 +621,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+  <cellStyleXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="普通" xfId="2"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="Normal" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -812,21 +819,23 @@
     <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
+    <cellStyle name="标题" xfId="35" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
+    <cellStyle name="注释" xfId="39" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1093,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -1161,7 +1170,7 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="3:5">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7"/>
@@ -1228,7 +1237,7 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
